--- a/sample-file.xlsx
+++ b/sample-file.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sample-file.txt" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>seiuFirstName</t>
   </si>
@@ -51,18 +51,18 @@
     <t>seiuState</t>
   </si>
   <si>
+    <t>seiuBirthDate</t>
+  </si>
+  <si>
+    <t>seiuGender</t>
+  </si>
+  <si>
+    <t>seiuPhoneNumber</t>
+  </si>
+  <si>
     <t>seiuZip</t>
   </si>
   <si>
-    <t>seiuBirthDate</t>
-  </si>
-  <si>
-    <t>seiuGender</t>
-  </si>
-  <si>
-    <t>seiuPhoneNumber</t>
-  </si>
-  <si>
     <t>seiuPhoneNumberCell</t>
   </si>
   <si>
@@ -121,6 +121,204 @@
   </si>
   <si>
     <t>EmployerName</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>JobStatus</t>
+  </si>
+  <si>
+    <t>JobMembershipStatus</t>
+  </si>
+  <si>
+    <t>MembershipCardSigned</t>
+  </si>
+  <si>
+    <t>MembershipCardSignDate</t>
+  </si>
+  <si>
+    <t>MembershipCardOrganizer</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>TerminatedDate</t>
+  </si>
+  <si>
+    <t>TerminatedReason</t>
+  </si>
+  <si>
+    <t>TerminatedNote</t>
+  </si>
+  <si>
+    <t>Excluded</t>
+  </si>
+  <si>
+    <t>ExcludedDate</t>
+  </si>
+  <si>
+    <t>ExcludedReason</t>
+  </si>
+  <si>
+    <t>ExcludedNote</t>
+  </si>
+  <si>
+    <t>Worksite</t>
+  </si>
+  <si>
+    <t>Worksite2</t>
+  </si>
+  <si>
+    <t>Worksite3</t>
+  </si>
+  <si>
+    <t>WorksiteAddressLine1</t>
+  </si>
+  <si>
+    <t>WorksiteAddressLine2</t>
+  </si>
+  <si>
+    <t>WorksiteCity</t>
+  </si>
+  <si>
+    <t>WorksiteState</t>
+  </si>
+  <si>
+    <t>WorksiteZip</t>
+  </si>
+  <si>
+    <t>Worksite2AddressLine1</t>
+  </si>
+  <si>
+    <t>Worksite2AddressLine2</t>
+  </si>
+  <si>
+    <t>Worksite2City</t>
+  </si>
+  <si>
+    <t>Worksite2State</t>
+  </si>
+  <si>
+    <t>Worksite2Zip</t>
+  </si>
+  <si>
+    <t>Worksite3AddressLine1</t>
+  </si>
+  <si>
+    <t>Worksite3AddressLine2</t>
+  </si>
+  <si>
+    <t>Worksite3City</t>
+  </si>
+  <si>
+    <t>Worksite3State</t>
+  </si>
+  <si>
+    <t>Worksite3Zip</t>
+  </si>
+  <si>
+    <t>BargUnit</t>
+  </si>
+  <si>
+    <t>BargUnit2</t>
+  </si>
+  <si>
+    <t>BargUnit3</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Department2</t>
+  </si>
+  <si>
+    <t>Department3</t>
+  </si>
+  <si>
+    <t>JobClass</t>
+  </si>
+  <si>
+    <t>JobClass2</t>
+  </si>
+  <si>
+    <t>JobClass3</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>JobTitle2</t>
+  </si>
+  <si>
+    <t>JobTitle3</t>
+  </si>
+  <si>
+    <t>DateOfHire</t>
+  </si>
+  <si>
+    <t>DateOfHire2</t>
+  </si>
+  <si>
+    <t>DateOfHire3</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Shift2</t>
+  </si>
+  <si>
+    <t>Shift3</t>
+  </si>
+  <si>
+    <t>WorkSchedule</t>
+  </si>
+  <si>
+    <t>WorkSchedule2</t>
+  </si>
+  <si>
+    <t>WorkSchedule3</t>
+  </si>
+  <si>
+    <t>Wage</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>EmployeeID2</t>
+  </si>
+  <si>
+    <t>EmployeeID3</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>SubSector</t>
+  </si>
+  <si>
+    <t>LAJActivist</t>
+  </si>
+  <si>
+    <t>LAJTeamLeader</t>
+  </si>
+  <si>
+    <t>LAJMLDP</t>
+  </si>
+  <si>
+    <t>MemberOrganizer</t>
+  </si>
+  <si>
+    <t>MemberPoliticalOrganizer</t>
+  </si>
+  <si>
+    <t>Steward</t>
   </si>
 </sst>
 </file>
@@ -489,15 +687,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:CV1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:100">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,6 +797,204 @@
       </c>
       <c r="AH1" t="s">
         <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/sample-file.xlsx
+++ b/sample-file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmagee/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmagee/Desktop/Membership API/sample-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,12 +143,6 @@
     <t>CopeInitiationDate</t>
   </si>
   <si>
-    <t>JobDivision</t>
-  </si>
-  <si>
-    <t>JobSubdivision</t>
-  </si>
-  <si>
     <t>EmployerName</t>
   </si>
   <si>
@@ -519,6 +513,12 @@
   </si>
   <si>
     <t>Steward</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>SubSector</t>
   </si>
 </sst>
 </file>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FS1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,271 +972,271 @@
         <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BV1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="DY1" s="1" t="s">
         <v>26</v>
@@ -1257,127 +1257,127 @@
         <v>32</v>
       </c>
       <c r="EE1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="EG1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FM1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FN1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FO1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FP1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FR1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/sample-file.xlsx
+++ b/sample-file.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmagee/Desktop/Membership API/sample-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmagee/Development/SEIU/member-data-tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2160" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>LocalKey</t>
   </si>
   <si>
+    <t>MemberTypeName</t>
+  </si>
+  <si>
+    <t>MemberSubTypeName</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>SubSector</t>
+  </si>
+  <si>
     <t>seiuFirstName</t>
   </si>
   <si>
@@ -41,6 +53,9 @@
     <t>NamePreferred</t>
   </si>
   <si>
+    <t>seiuGender</t>
+  </si>
+  <si>
     <t>seiuStreetAddress1</t>
   </si>
   <si>
@@ -74,458 +89,431 @@
     <t>MailZip</t>
   </si>
   <si>
+    <t>seiuPhoneNumber</t>
+  </si>
+  <si>
+    <t>PhonePreferred</t>
+  </si>
+  <si>
+    <t>seiuPhoneNumberCell</t>
+  </si>
+  <si>
+    <t>seiuPhoneNumberWork</t>
+  </si>
+  <si>
+    <t>seiuEmailAddress</t>
+  </si>
+  <si>
     <t>seiuBirthDate</t>
   </si>
   <si>
-    <t>seiuGender</t>
-  </si>
-  <si>
-    <t>seiuPhoneNumber</t>
-  </si>
-  <si>
-    <t>seiuPhoneNumberCell</t>
-  </si>
-  <si>
-    <t>PhonePreferred</t>
-  </si>
-  <si>
-    <t>seiuEmailAddress</t>
-  </si>
-  <si>
-    <t>SeiuPhoneNumberWork</t>
-  </si>
-  <si>
     <t>seiuLanguage</t>
   </si>
   <si>
-    <t>MemberTypeName</t>
-  </si>
-  <si>
-    <t>MemberSubTypeName</t>
+    <t>CopeContributor</t>
+  </si>
+  <si>
+    <t>CopeAmount</t>
+  </si>
+  <si>
+    <t>CopePledgeDate</t>
+  </si>
+  <si>
+    <t>CopeInitiationDate</t>
+  </si>
+  <si>
+    <t>CopeLastContributionDate</t>
+  </si>
+  <si>
+    <t>CopeFrequency</t>
+  </si>
+  <si>
+    <t>CopeAmount2ndLast</t>
+  </si>
+  <si>
+    <t>CopeDate2ndLast</t>
+  </si>
+  <si>
+    <t>CopeAmount3rdLast</t>
+  </si>
+  <si>
+    <t>CopeDate3rdLast</t>
+  </si>
+  <si>
+    <t>CopeAmount4thLast</t>
+  </si>
+  <si>
+    <t>CopeDate4thLast</t>
+  </si>
+  <si>
+    <t>CopeAmount5thLast</t>
+  </si>
+  <si>
+    <t>CopeDate5thLast</t>
+  </si>
+  <si>
+    <t>CopeAmount6thLast</t>
+  </si>
+  <si>
+    <t>CopeDate6thLast</t>
+  </si>
+  <si>
+    <t>MemberOrganizer</t>
+  </si>
+  <si>
+    <t>MemberPoliticalOrganizer</t>
+  </si>
+  <si>
+    <t>Steward</t>
+  </si>
+  <si>
+    <t>LAJActivist</t>
+  </si>
+  <si>
+    <t>LAJActivistDate</t>
+  </si>
+  <si>
+    <t>LAJTeamLeader</t>
+  </si>
+  <si>
+    <t>LAJTeamLeaderDate</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Charter</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>EmployerNo</t>
+  </si>
+  <si>
+    <t>EmployerName</t>
+  </si>
+  <si>
+    <t>Worksite</t>
+  </si>
+  <si>
+    <t>WorksiteArea</t>
+  </si>
+  <si>
+    <t>WorksiteAddressLine1</t>
+  </si>
+  <si>
+    <t>WorksiteAddressLine2</t>
+  </si>
+  <si>
+    <t>WorksiteCity</t>
+  </si>
+  <si>
+    <t>WorksiteState</t>
+  </si>
+  <si>
+    <t>WorksiteZip</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>BargUnit</t>
+  </si>
+  <si>
+    <t>JobClass</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>JobStatus</t>
+  </si>
+  <si>
+    <t>WorkSchedule</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>DateOfHire</t>
+  </si>
+  <si>
+    <t>SeiuEmailWork</t>
+  </si>
+  <si>
+    <t>AuthorizationCardSigned</t>
+  </si>
+  <si>
+    <t>AuthorizationCardSignedDate</t>
+  </si>
+  <si>
+    <t>AuthorizationCardReceiveDate</t>
+  </si>
+  <si>
+    <t>MembershipCardSigned</t>
+  </si>
+  <si>
+    <t>MembershipCardSignedDate</t>
+  </si>
+  <si>
+    <t>MembershipCardReceiveDate</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>TerminatedDate</t>
+  </si>
+  <si>
+    <t>TerminatedReason</t>
+  </si>
+  <si>
+    <t>TerminatedNote</t>
+  </si>
+  <si>
+    <t>Excluded</t>
+  </si>
+  <si>
+    <t>ExcludedDate</t>
+  </si>
+  <si>
+    <t>ExcludedReason</t>
+  </si>
+  <si>
+    <t>ExcludedNote</t>
+  </si>
+  <si>
+    <t>EmployeeID2</t>
+  </si>
+  <si>
+    <t>EmployerNo2</t>
+  </si>
+  <si>
+    <t>EmployerName2</t>
+  </si>
+  <si>
+    <t>Worksite2</t>
+  </si>
+  <si>
+    <t>Worksite2Area</t>
+  </si>
+  <si>
+    <t>Worksite2AddressLine1</t>
+  </si>
+  <si>
+    <t>Worksite2AddressLine2</t>
+  </si>
+  <si>
+    <t>Worksite2City</t>
+  </si>
+  <si>
+    <t>Worksite2State</t>
+  </si>
+  <si>
+    <t>Worksite2Zip</t>
+  </si>
+  <si>
+    <t>Department2</t>
+  </si>
+  <si>
+    <t>Campus2</t>
+  </si>
+  <si>
+    <t>BargUnit2</t>
+  </si>
+  <si>
+    <t>JobClass2</t>
+  </si>
+  <si>
+    <t>JobTitle2</t>
+  </si>
+  <si>
+    <t>JobStatus2</t>
+  </si>
+  <si>
+    <t>WorkSchedule2</t>
+  </si>
+  <si>
+    <t>Shift2</t>
+  </si>
+  <si>
+    <t>DateOfHire2</t>
+  </si>
+  <si>
+    <t>SeiuEmailWork2</t>
+  </si>
+  <si>
+    <t>AuthorizationCardSigned2</t>
+  </si>
+  <si>
+    <t>AuthorizationCardSignedDate2</t>
+  </si>
+  <si>
+    <t>AuthorizationCardReceiveDate2</t>
+  </si>
+  <si>
+    <t>MembershipCardSigned2</t>
+  </si>
+  <si>
+    <t>MembershipCardSignedDate2</t>
+  </si>
+  <si>
+    <t>MembershipCardReceiveDate2</t>
+  </si>
+  <si>
+    <t>Terminated2</t>
+  </si>
+  <si>
+    <t>TerminatedDate2</t>
+  </si>
+  <si>
+    <t>TerminatedReason2</t>
+  </si>
+  <si>
+    <t>TerminatedNote2</t>
+  </si>
+  <si>
+    <t>Excluded2</t>
+  </si>
+  <si>
+    <t>ExcludedDate2</t>
+  </si>
+  <si>
+    <t>ExcludedReason2</t>
+  </si>
+  <si>
+    <t>ExcludedNote2</t>
+  </si>
+  <si>
+    <t>EmployeeID3</t>
+  </si>
+  <si>
+    <t>EmployerNo3</t>
+  </si>
+  <si>
+    <t>EmployerName3</t>
+  </si>
+  <si>
+    <t>Worksite3</t>
+  </si>
+  <si>
+    <t>Worksite3Area</t>
+  </si>
+  <si>
+    <t>Worksite3AddressLine1</t>
+  </si>
+  <si>
+    <t>Worksite3AddressLine2</t>
+  </si>
+  <si>
+    <t>Worksite3City</t>
+  </si>
+  <si>
+    <t>Worksite3State</t>
+  </si>
+  <si>
+    <t>Worksite3Zip</t>
+  </si>
+  <si>
+    <t>Department3</t>
+  </si>
+  <si>
+    <t>Campus3</t>
+  </si>
+  <si>
+    <t>BargUnit3</t>
+  </si>
+  <si>
+    <t>JobClass3</t>
+  </si>
+  <si>
+    <t>JobTitle3</t>
+  </si>
+  <si>
+    <t>JobStatus3</t>
+  </si>
+  <si>
+    <t>WorkSchedule3</t>
+  </si>
+  <si>
+    <t>Shift3</t>
+  </si>
+  <si>
+    <t>DateOfHire3</t>
+  </si>
+  <si>
+    <t>SeiuEmailWork3</t>
+  </si>
+  <si>
+    <t>AuthorizationCardSigned3</t>
+  </si>
+  <si>
+    <t>AuthorizationCardSignedDate3</t>
+  </si>
+  <si>
+    <t>AuthorizationCardReceiveDate3</t>
+  </si>
+  <si>
+    <t>MembershipCardSigned3</t>
+  </si>
+  <si>
+    <t>MembershipCardSignedDate3</t>
+  </si>
+  <si>
+    <t>MembershipCardReceiveDate3</t>
+  </si>
+  <si>
+    <t>Terminated3</t>
+  </si>
+  <si>
+    <t>TerminatedDate3</t>
+  </si>
+  <si>
+    <t>TerminatedReason3</t>
+  </si>
+  <si>
+    <t>TerminatedNote3</t>
+  </si>
+  <si>
+    <t>Excluded3</t>
+  </si>
+  <si>
+    <t>ExcludedDate3</t>
+  </si>
+  <si>
+    <t>ExcludedReason3</t>
+  </si>
+  <si>
+    <t>ExcludedNote3</t>
   </si>
   <si>
     <t>InitiationDate</t>
   </si>
   <si>
-    <t>MemberStatus</t>
+    <t>ProhibitMemberContact</t>
+  </si>
+  <si>
+    <t>ProhibitMemberCall</t>
   </si>
   <si>
     <t>ProhibitMemberMail</t>
   </si>
   <si>
-    <t>ProhibitMemberCall</t>
-  </si>
-  <si>
-    <t>ProhibitMemberContact</t>
-  </si>
-  <si>
     <t>ProhibitMemberEmail</t>
   </si>
   <si>
     <t>PermitMemberText</t>
-  </si>
-  <si>
-    <t>CopeAmount</t>
-  </si>
-  <si>
-    <t>CopeFrequency</t>
-  </si>
-  <si>
-    <t>CopeLastContributionDate</t>
-  </si>
-  <si>
-    <t>CopeContributor</t>
-  </si>
-  <si>
-    <t>CopePledgeDate</t>
-  </si>
-  <si>
-    <t>CopeInitiationDate</t>
-  </si>
-  <si>
-    <t>EmployerName</t>
-  </si>
-  <si>
-    <t>Campus</t>
-  </si>
-  <si>
-    <t>JobStatus</t>
-  </si>
-  <si>
-    <t>JobMembershipStatus</t>
-  </si>
-  <si>
-    <t>MembershipCardSigned</t>
-  </si>
-  <si>
-    <t>MembershipCardSignDate</t>
-  </si>
-  <si>
-    <t>MembershipCardOrganizer</t>
-  </si>
-  <si>
-    <t>Chapter</t>
-  </si>
-  <si>
-    <t>Charter</t>
-  </si>
-  <si>
-    <t>EmployeeID</t>
-  </si>
-  <si>
-    <t>EmployerNo</t>
-  </si>
-  <si>
-    <t>Worksite</t>
-  </si>
-  <si>
-    <t>WorksiteArea</t>
-  </si>
-  <si>
-    <t>WorksiteAddressLine1</t>
-  </si>
-  <si>
-    <t>WorksiteAddressLine2</t>
-  </si>
-  <si>
-    <t>WorksiteCity</t>
-  </si>
-  <si>
-    <t>WorksiteState</t>
-  </si>
-  <si>
-    <t>WorksiteZip</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>BargUnit</t>
-  </si>
-  <si>
-    <t>JobClass</t>
-  </si>
-  <si>
-    <t>JobTitle</t>
-  </si>
-  <si>
-    <t>WorkSchedule</t>
-  </si>
-  <si>
-    <t>Shift</t>
-  </si>
-  <si>
-    <t>DateOfHire</t>
-  </si>
-  <si>
-    <t>SeiuEmailWork</t>
-  </si>
-  <si>
-    <t>AuthorizationCardSigned</t>
-  </si>
-  <si>
-    <t>AuthorizationCardSignedDate</t>
-  </si>
-  <si>
-    <t>AuthorizationCardReceiveDate</t>
-  </si>
-  <si>
-    <t>MembershipCardSignedDate</t>
-  </si>
-  <si>
-    <t>MembershipCardReceiveDate</t>
-  </si>
-  <si>
-    <t>EmployeeID2</t>
-  </si>
-  <si>
-    <t>EmployerNo2</t>
-  </si>
-  <si>
-    <t>EmployerName2</t>
-  </si>
-  <si>
-    <t>Worksite2</t>
-  </si>
-  <si>
-    <t>Worksite2Area</t>
-  </si>
-  <si>
-    <t>Worksite2AddressLine1</t>
-  </si>
-  <si>
-    <t>Worksite2AddressLine2</t>
-  </si>
-  <si>
-    <t>Worksite2City</t>
-  </si>
-  <si>
-    <t>Worksite2State</t>
-  </si>
-  <si>
-    <t>Worksite2Zip</t>
-  </si>
-  <si>
-    <t>Department2</t>
-  </si>
-  <si>
-    <t>Campus2</t>
-  </si>
-  <si>
-    <t>BargUnit2</t>
-  </si>
-  <si>
-    <t>JobClass2</t>
-  </si>
-  <si>
-    <t>JobTitle2</t>
-  </si>
-  <si>
-    <t>JobStatus2</t>
-  </si>
-  <si>
-    <t>WorkSchedule2</t>
-  </si>
-  <si>
-    <t>Shift2</t>
-  </si>
-  <si>
-    <t>DateOfHire2</t>
-  </si>
-  <si>
-    <t>SeiuEmailWork2</t>
-  </si>
-  <si>
-    <t>AuthorizationCardSigned2</t>
-  </si>
-  <si>
-    <t>AuthorizationCardSignedDate2</t>
-  </si>
-  <si>
-    <t>AuthorizationCardReceiveDate2</t>
-  </si>
-  <si>
-    <t>MembershipCardSigned2</t>
-  </si>
-  <si>
-    <t>MembershipCardSignedDate2</t>
-  </si>
-  <si>
-    <t>MembershipCardReceiveDate2</t>
-  </si>
-  <si>
-    <t>EmployeeID3</t>
-  </si>
-  <si>
-    <t>EmployerNo3</t>
-  </si>
-  <si>
-    <t>EmployerName3</t>
-  </si>
-  <si>
-    <t>Worksite3</t>
-  </si>
-  <si>
-    <t>Worksite3Area</t>
-  </si>
-  <si>
-    <t>Worksite3AddressLine1</t>
-  </si>
-  <si>
-    <t>Worksite3AddressLine2</t>
-  </si>
-  <si>
-    <t>Worksite3City</t>
-  </si>
-  <si>
-    <t>Worksite3State</t>
-  </si>
-  <si>
-    <t>Worksite3Zip</t>
-  </si>
-  <si>
-    <t>Department3</t>
-  </si>
-  <si>
-    <t>Campus3</t>
-  </si>
-  <si>
-    <t>BargUnit3</t>
-  </si>
-  <si>
-    <t>JobClass3</t>
-  </si>
-  <si>
-    <t>JobTitle3</t>
-  </si>
-  <si>
-    <t>JobStatus3</t>
-  </si>
-  <si>
-    <t>WorkSchedule3</t>
-  </si>
-  <si>
-    <t>Shift3</t>
-  </si>
-  <si>
-    <t>DateOfHire3</t>
-  </si>
-  <si>
-    <t>SeiuEmailWork3</t>
-  </si>
-  <si>
-    <t>AuthorizationCardSigned3</t>
-  </si>
-  <si>
-    <t>AuthorizationCardSignedDate3</t>
-  </si>
-  <si>
-    <t>AuthorizationCardReceiveDate3</t>
-  </si>
-  <si>
-    <t>MembershipCardSigned3</t>
-  </si>
-  <si>
-    <t>MembershipCardSignedDate3</t>
-  </si>
-  <si>
-    <t>MembershipCardReceiveDate3</t>
-  </si>
-  <si>
-    <t>CopeAmount2ndLast</t>
-  </si>
-  <si>
-    <t>CopeDate2ndLast</t>
-  </si>
-  <si>
-    <t>CopeAmount3rdLast</t>
-  </si>
-  <si>
-    <t>CopeDate3rdLast</t>
-  </si>
-  <si>
-    <t>CopeAmount4thLast</t>
-  </si>
-  <si>
-    <t>CopeDate4thLast</t>
-  </si>
-  <si>
-    <t>CopeAmount5thLast</t>
-  </si>
-  <si>
-    <t>CopeDate5thLast</t>
-  </si>
-  <si>
-    <t>CopeAmount6thLast</t>
-  </si>
-  <si>
-    <t>CopeDate6thLast</t>
-  </si>
-  <si>
-    <t>Terminated</t>
-  </si>
-  <si>
-    <t>TerminatedDate</t>
-  </si>
-  <si>
-    <t>TerminatedReason</t>
-  </si>
-  <si>
-    <t>TerminatedNote</t>
-  </si>
-  <si>
-    <t>Excluded</t>
-  </si>
-  <si>
-    <t>ExcludedDate</t>
-  </si>
-  <si>
-    <t>ExcludedReason</t>
-  </si>
-  <si>
-    <t>ExcludedNote</t>
-  </si>
-  <si>
-    <t>Terminated2</t>
-  </si>
-  <si>
-    <t>TerminatedDate2</t>
-  </si>
-  <si>
-    <t>TerminatedReason2</t>
-  </si>
-  <si>
-    <t>TerminatedNote2</t>
-  </si>
-  <si>
-    <t>Excluded2</t>
-  </si>
-  <si>
-    <t>ExcludedDate2</t>
-  </si>
-  <si>
-    <t>ExcludedReason2</t>
-  </si>
-  <si>
-    <t>ExcludedNote2</t>
-  </si>
-  <si>
-    <t>Terminated3</t>
-  </si>
-  <si>
-    <t>TerminatedDate3</t>
-  </si>
-  <si>
-    <t>TerminatedReason3</t>
-  </si>
-  <si>
-    <t>TerminatedNote3</t>
-  </si>
-  <si>
-    <t>Excluded3</t>
-  </si>
-  <si>
-    <t>ExcludedDate3</t>
-  </si>
-  <si>
-    <t>ExcludedReason3</t>
-  </si>
-  <si>
-    <t>ExcludedNote3</t>
-  </si>
-  <si>
-    <t>LAJActivist</t>
-  </si>
-  <si>
-    <t>LAJActivistDate</t>
-  </si>
-  <si>
-    <t>LAJTeamLeader</t>
-  </si>
-  <si>
-    <t>LAJTeamLeaderDate</t>
-  </si>
-  <si>
-    <t>MemberOrganizer</t>
-  </si>
-  <si>
-    <t>MemberPoliticalOrganizer</t>
-  </si>
-  <si>
-    <t>Steward</t>
-  </si>
-  <si>
-    <t>Sector</t>
-  </si>
-  <si>
-    <t>SubSector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -534,14 +522,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="13.2"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -564,10 +548,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,15 +828,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS1"/>
+  <dimension ref="A1:FE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:FE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:175" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:161" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,25 +915,25 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
@@ -972,412 +955,370 @@
         <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="AV1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FM1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="FN1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="FO1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
